--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ccl11-Cxcr3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ccl11-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,309 +528,743 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.573058624100537</v>
+        <v>0.687091</v>
       </c>
       <c r="H2">
-        <v>0.573058624100537</v>
+        <v>1.374182</v>
       </c>
       <c r="I2">
-        <v>0.005618040064215539</v>
+        <v>0.006109245136875069</v>
       </c>
       <c r="J2">
-        <v>0.005618040064215539</v>
+        <v>0.004151846828623644</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.39324635966321</v>
+        <v>0.7166990000000001</v>
       </c>
       <c r="N2">
-        <v>2.39324635966321</v>
+        <v>2.150097</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2276207788704612</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.2276207788704611</v>
       </c>
       <c r="Q2">
-        <v>1.371470466002218</v>
+        <v>0.4924374326090001</v>
       </c>
       <c r="R2">
-        <v>1.371470466002218</v>
+        <v>2.954624595654</v>
       </c>
       <c r="S2">
-        <v>0.005618040064215539</v>
+        <v>0.00139059113636608</v>
       </c>
       <c r="T2">
-        <v>0.005618040064215539</v>
+        <v>0.0009450466088821679</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>92.9333797278603</v>
+        <v>0.687091</v>
       </c>
       <c r="H3">
-        <v>92.9333797278603</v>
+        <v>1.374182</v>
       </c>
       <c r="I3">
-        <v>0.911082092924716</v>
+        <v>0.006109245136875069</v>
       </c>
       <c r="J3">
-        <v>0.911082092924716</v>
+        <v>0.004151846828623644</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.39324635966321</v>
+        <v>2.431954666666666</v>
       </c>
       <c r="N3">
-        <v>2.39324635966321</v>
+        <v>7.295864</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.7723792211295388</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.7723792211295388</v>
       </c>
       <c r="Q3">
-        <v>222.4124727249004</v>
+        <v>1.670974163874666</v>
       </c>
       <c r="R3">
-        <v>222.4124727249004</v>
+        <v>10.025844983248</v>
       </c>
       <c r="S3">
-        <v>0.911082092924716</v>
+        <v>0.004718654000508989</v>
       </c>
       <c r="T3">
-        <v>0.911082092924716</v>
+        <v>0.003206800219741476</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.29352852446951</v>
+        <v>101.337382</v>
       </c>
       <c r="H4">
-        <v>1.29352852446951</v>
+        <v>304.012146</v>
       </c>
       <c r="I4">
-        <v>0.01268124196905967</v>
+        <v>0.9010377201377272</v>
       </c>
       <c r="J4">
-        <v>0.01268124196905967</v>
+        <v>0.9185187000216628</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.39324635966321</v>
+        <v>0.7166990000000001</v>
       </c>
       <c r="N4">
-        <v>2.39324635966321</v>
+        <v>2.150097</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.2276207788704612</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.2276207788704611</v>
       </c>
       <c r="Q4">
-        <v>3.095732432307178</v>
+        <v>72.62840034201801</v>
       </c>
       <c r="R4">
-        <v>3.095732432307178</v>
+        <v>653.6556030781621</v>
       </c>
       <c r="S4">
-        <v>0.01268124196905967</v>
+        <v>0.2050949076494141</v>
       </c>
       <c r="T4">
-        <v>0.01268124196905967</v>
+        <v>0.2090739419060143</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.66333286412594</v>
+        <v>101.337382</v>
       </c>
       <c r="H5">
-        <v>1.66333286412594</v>
+        <v>304.012146</v>
       </c>
       <c r="I5">
-        <v>0.01630665743047345</v>
+        <v>0.9010377201377272</v>
       </c>
       <c r="J5">
-        <v>0.01630665743047345</v>
+        <v>0.9185187000216628</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.39324635966321</v>
+        <v>2.431954666666666</v>
       </c>
       <c r="N5">
-        <v>2.39324635966321</v>
+        <v>7.295864</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.7723792211295388</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.7723792211295388</v>
       </c>
       <c r="Q5">
-        <v>3.980765321977586</v>
+        <v>246.4479190626827</v>
       </c>
       <c r="R5">
-        <v>3.980765321977586</v>
+        <v>2218.031271564144</v>
       </c>
       <c r="S5">
-        <v>0.01630665743047345</v>
+        <v>0.6959428124883131</v>
       </c>
       <c r="T5">
-        <v>0.01630665743047345</v>
+        <v>0.7094447581156484</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.502495333333333</v>
+      </c>
+      <c r="H6">
+        <v>4.507486</v>
+      </c>
+      <c r="I6">
+        <v>0.01335938370367848</v>
+      </c>
+      <c r="J6">
+        <v>0.0136185683222204</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.7166990000000001</v>
+      </c>
+      <c r="N6">
+        <v>2.150097</v>
+      </c>
+      <c r="O6">
+        <v>0.2276207788704612</v>
+      </c>
+      <c r="P6">
+        <v>0.2276207788704611</v>
+      </c>
+      <c r="Q6">
+        <v>1.076836902904667</v>
+      </c>
+      <c r="R6">
+        <v>9.691532126142</v>
+      </c>
+      <c r="S6">
+        <v>0.003040873323860642</v>
+      </c>
+      <c r="T6">
+        <v>0.003099869128604397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.502495333333333</v>
+      </c>
+      <c r="H7">
+        <v>4.507486</v>
+      </c>
+      <c r="I7">
+        <v>0.01335938370367848</v>
+      </c>
+      <c r="J7">
+        <v>0.0136185683222204</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.431954666666666</v>
+      </c>
+      <c r="N7">
+        <v>7.295864</v>
+      </c>
+      <c r="O7">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="P7">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="Q7">
+        <v>3.654000537544889</v>
+      </c>
+      <c r="R7">
+        <v>32.886004837904</v>
+      </c>
+      <c r="S7">
+        <v>0.01031851037981784</v>
+      </c>
+      <c r="T7">
+        <v>0.010518699193616</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.023554</v>
+      </c>
+      <c r="H8">
+        <v>6.070662</v>
+      </c>
+      <c r="I8">
+        <v>0.01799235826652378</v>
+      </c>
+      <c r="J8">
+        <v>0.01834142695243139</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.7166990000000001</v>
+      </c>
+      <c r="N8">
+        <v>2.150097</v>
+      </c>
+      <c r="O8">
+        <v>0.2276207788704612</v>
+      </c>
+      <c r="P8">
+        <v>0.2276207788704611</v>
+      </c>
+      <c r="Q8">
+        <v>1.450279128246</v>
+      </c>
+      <c r="R8">
+        <v>13.052512154214</v>
+      </c>
+      <c r="S8">
+        <v>0.004095434602342524</v>
+      </c>
+      <c r="T8">
+        <v>0.004174889888508101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.023554</v>
+      </c>
+      <c r="H9">
+        <v>6.070662</v>
+      </c>
+      <c r="I9">
+        <v>0.01799235826652378</v>
+      </c>
+      <c r="J9">
+        <v>0.01834142695243139</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.431954666666666</v>
+      </c>
+      <c r="N9">
+        <v>7.295864</v>
+      </c>
+      <c r="O9">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="P9">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="Q9">
+        <v>4.921191593551999</v>
+      </c>
+      <c r="R9">
+        <v>44.29072434196799</v>
+      </c>
+      <c r="S9">
+        <v>0.01389692366418126</v>
+      </c>
+      <c r="T9">
+        <v>0.01416653706392329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>1.182641333333333</v>
+      </c>
+      <c r="H10">
+        <v>3.547924</v>
+      </c>
+      <c r="I10">
+        <v>0.01051541326306721</v>
+      </c>
+      <c r="J10">
+        <v>0.01071942217813777</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.7166990000000001</v>
+      </c>
+      <c r="N10">
+        <v>2.150097</v>
+      </c>
+      <c r="O10">
+        <v>0.2276207788704612</v>
+      </c>
+      <c r="P10">
+        <v>0.2276207788704611</v>
+      </c>
+      <c r="Q10">
+        <v>0.8475978609586668</v>
+      </c>
+      <c r="R10">
+        <v>7.628380748628</v>
+      </c>
+      <c r="S10">
+        <v>0.002393526557084137</v>
+      </c>
+      <c r="T10">
+        <v>0.002439963225229014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>1.182641333333333</v>
+      </c>
+      <c r="H11">
+        <v>3.547924</v>
+      </c>
+      <c r="I11">
+        <v>0.01051541326306721</v>
+      </c>
+      <c r="J11">
+        <v>0.01071942217813777</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.431954666666666</v>
+      </c>
+      <c r="N11">
+        <v>7.295864</v>
+      </c>
+      <c r="O11">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="P11">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="Q11">
+        <v>2.876130109592889</v>
+      </c>
+      <c r="R11">
+        <v>25.885170986336</v>
+      </c>
+      <c r="S11">
+        <v>0.008121886705983076</v>
+      </c>
+      <c r="T11">
+        <v>0.008279458952908755</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5.734249999999999</v>
+      </c>
+      <c r="H12">
+        <v>11.4685</v>
+      </c>
+      <c r="I12">
+        <v>0.0509858794921282</v>
+      </c>
+      <c r="J12">
+        <v>0.03465003569692389</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.7166990000000001</v>
+      </c>
+      <c r="N12">
+        <v>2.150097</v>
+      </c>
+      <c r="O12">
+        <v>0.2276207788704612</v>
+      </c>
+      <c r="P12">
+        <v>0.2276207788704611</v>
+      </c>
+      <c r="Q12">
+        <v>4.10973124075</v>
+      </c>
+      <c r="R12">
+        <v>24.6583874445</v>
+      </c>
+      <c r="S12">
+        <v>0.01160544560139369</v>
+      </c>
+      <c r="T12">
+        <v>0.007887068113223098</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>5.53999990671218</v>
-      </c>
-      <c r="H6">
-        <v>5.53999990671218</v>
-      </c>
-      <c r="I6">
-        <v>0.05431196761153535</v>
-      </c>
-      <c r="J6">
-        <v>0.05431196761153535</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>2.39324635966321</v>
-      </c>
-      <c r="N6">
-        <v>2.39324635966321</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>13.25858460927345</v>
-      </c>
-      <c r="R6">
-        <v>13.25858460927345</v>
-      </c>
-      <c r="S6">
-        <v>0.05431196761153535</v>
-      </c>
-      <c r="T6">
-        <v>0.05431196761153535</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.734249999999999</v>
+      </c>
+      <c r="H13">
+        <v>11.4685</v>
+      </c>
+      <c r="I13">
+        <v>0.0509858794921282</v>
+      </c>
+      <c r="J13">
+        <v>0.03465003569692389</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.431954666666666</v>
+      </c>
+      <c r="N13">
+        <v>7.295864</v>
+      </c>
+      <c r="O13">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="P13">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="Q13">
+        <v>13.94543604733333</v>
+      </c>
+      <c r="R13">
+        <v>83.67261628399999</v>
+      </c>
+      <c r="S13">
+        <v>0.03938043389073451</v>
+      </c>
+      <c r="T13">
+        <v>0.02676296758370079</v>
       </c>
     </row>
   </sheetData>
